--- a/Current_calculations.xlsx
+++ b/Current_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd666c1b81e9ee1c/Documents/5-Swamp_Launch/NASA_USLI_2026_Controls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{639AED0E-A413-4F94-8DB5-1F256DB05C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C991C594-9AF0-4686-8EAF-A794FCDD3D87}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{639AED0E-A413-4F94-8DB5-1F256DB05C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4207F3-AC13-4E83-B627-5E230D6BEB77}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2209877F-E15E-4A4B-9D94-0B5CFF8C03E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Teensy 4.1</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Based on google search</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -163,6 +185,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A802629-A71D-4905-9FFE-8A64CD33BD28}" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E8" xr:uid="{1A802629-A71D-4905-9FFE-8A64CD33BD28}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9BA13E0F-B9E2-4FBB-B951-A20D261F7318}" name="Component"/>
+    <tableColumn id="2" xr3:uid="{45BCC902-806D-4275-9BCB-8827C563FD3C}" name="Approximate Current Draw [mA]"/>
+    <tableColumn id="3" xr3:uid="{7DE73954-F101-4E28-8441-5535CD81842B}" name="Conservative estimate [mA]"/>
+    <tableColumn id="4" xr3:uid="{DA690494-F6F6-473E-8688-3C67E8762292}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{FE6F732C-E82C-464D-A441-162EEB005987}" name="Datasheet"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,18 +518,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B83E49-84BB-4D43-9D6D-DEEE33C3E8A2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,6 +640,9 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7">
         <v>10</v>
       </c>
@@ -610,7 +650,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>221.0592</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>440.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>